--- a/seed/tests/data/BPS-sample-Targets-2023.xlsx
+++ b/seed/tests/data/BPS-sample-Targets-2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/achapin/seed/seed/tests/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15A8EB39-1651-FF4E-B612-39B6B6A1D051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C08DD9A-F00B-B743-B022-D5E379779E42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15320" yWindow="6560" windowWidth="21600" windowHeight="19840" xr2:uid="{ABA70866-58E3-E741-9E6E-8CBE8BD4F008}"/>
+    <workbookView xWindow="15320" yWindow="840" windowWidth="21600" windowHeight="19840" xr2:uid="{ABA70866-58E3-E741-9E6E-8CBE8BD4F008}"/>
   </bookViews>
   <sheets>
     <sheet name="BPS Data" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t>Property Name</t>
   </si>
@@ -128,6 +128,12 @@
   </si>
   <si>
     <t>2425 N STREET NW</t>
+  </si>
+  <si>
+    <t>GHGI Target</t>
+  </si>
+  <si>
+    <t>GHGI Target Year</t>
   </si>
 </sst>
 </file>
@@ -206,9 +212,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -527,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14AAF8DA-FAFC-5247-8BBA-26096DB3751B}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -538,7 +547,7 @@
     <col min="4" max="4" width="38.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -563,8 +572,14 @@
       <c r="H1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>11911</v>
       </c>
@@ -586,8 +601,11 @@
       <c r="H2">
         <v>2024</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J2">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>12227</v>
       </c>
@@ -609,8 +627,11 @@
       <c r="H3">
         <v>2024</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J3">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>17971</v>
       </c>
@@ -632,8 +653,11 @@
       <c r="H4">
         <v>2024</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J4">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>21381</v>
       </c>
@@ -655,8 +679,11 @@
       <c r="H5">
         <v>2024</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J5">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>21404</v>
       </c>
@@ -678,8 +705,11 @@
       <c r="H6">
         <v>2024</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J6">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>21405</v>
       </c>
@@ -701,8 +731,11 @@
       <c r="H7">
         <v>2024</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J7">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>21368</v>
       </c>
@@ -724,8 +757,11 @@
       <c r="H8">
         <v>2024</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J8">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>21378</v>
       </c>
@@ -747,8 +783,11 @@
       <c r="H9">
         <v>2024</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J9">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>21426</v>
       </c>
@@ -768,6 +807,9 @@
         <v>127991</v>
       </c>
       <c r="H10">
+        <v>2024</v>
+      </c>
+      <c r="J10">
         <v>2024</v>
       </c>
     </row>
